--- a/formats/excel/Formats RHA ANO 18.xlsx
+++ b/formats/excel/Formats RHA ANO 18.xlsx
@@ -16,14 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256">
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t>libelle</t>
   </si>
   <si>
-    <t>nom</t>
-  </si>
-  <si>
     <t>longueur</t>
   </si>
   <si>
@@ -33,109 +36,103 @@
     <t>fin</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° FINESS  e-PMSI </t>
-  </si>
-  <si>
     <t>NOFINESS</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t xml:space="preserve">N° format </t>
+    <t>N° FINESS  e-PMSI</t>
   </si>
   <si>
     <t>NOFORM</t>
   </si>
   <si>
-    <t xml:space="preserve">N° format VID-HOSP </t>
+    <t>N° format</t>
   </si>
   <si>
     <t>NOVIDHOSP</t>
   </si>
   <si>
-    <t xml:space="preserve">Mois de la date d'entrée du séjour </t>
+    <t>N° format VID-HOSP</t>
   </si>
   <si>
     <t>MOISENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Année de la date d'entrée du séjour </t>
+    <t>Mois de la date d'entrée du séjour</t>
   </si>
   <si>
     <t>ANNEEENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « n° immatriculation assuré  » </t>
+    <t>Année de la date d'entrée du séjour</t>
   </si>
   <si>
     <t>CRSECU</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « date de  naissance » </t>
+    <t>Code retour contrôle « n° immatriculation assuré  »</t>
   </si>
   <si>
     <t>CRDNAI</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « sexe » </t>
+    <t>Code retour contrôle « date de  naissance »</t>
   </si>
   <si>
     <t>CRSEXE</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « n° d’identification administratif de séjour » </t>
+    <t>Code retour contrôle « sexe »</t>
   </si>
   <si>
     <t>CRNODA</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour « fusion ANO-HOSP et HOSP-PMSI » </t>
+    <t>Code retour contrôle « n° d’identification administratif de séjour »</t>
   </si>
   <si>
     <t>CRFUSHOSP</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour « fusion ANO-PMSI et fichier PMSI » </t>
+    <t>Code retour « fusion ANO-HOSP et HOSP-PMSI »</t>
   </si>
   <si>
     <t>CRFUSPMSI</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « date de référence» ( date d'entrée du séjour) </t>
+    <t>Code retour « fusion ANO-PMSI et fichier PMSI »</t>
   </si>
   <si>
     <t>CRDTENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Cohérence date naissance » </t>
+    <t>Code retour contrôle « date de référence» ( date d'entrée du séjour)</t>
   </si>
   <si>
     <t>CRCDNAI</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Cohérence sexe » </t>
+    <t>Code retour contrôle « Cohérence date naissance »</t>
   </si>
   <si>
     <t>CRCSEXE</t>
   </si>
   <si>
-    <t xml:space="preserve">N° anonyme </t>
+    <t>Code retour contrôle « Cohérence sexe »</t>
   </si>
   <si>
     <t>NOANON</t>
   </si>
   <si>
-    <t xml:space="preserve">N° anonyme individuel </t>
+    <t>N° anonyme</t>
   </si>
   <si>
     <t>NOANONIND</t>
   </si>
   <si>
-    <t xml:space="preserve">N° de séjour </t>
+    <t>N° anonyme individuel</t>
   </si>
   <si>
     <t>NOSEJ</t>
@@ -144,319 +141,391 @@
     <t>i</t>
   </si>
   <si>
-    <t xml:space="preserve">N° séquentiel dans fichier PMSI </t>
+    <t>N° de séjour</t>
   </si>
   <si>
     <t>NOSEQSEJ</t>
   </si>
   <si>
-    <t xml:space="preserve">Date d'entrée du séjour PMSI </t>
+    <t>N° séquentiel dans fichier PMSI</t>
   </si>
   <si>
     <t>DTENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Date de sortie du séjour PMSI </t>
+    <t>Date d'entrée du séjour PMSI</t>
   </si>
   <si>
     <t>DTSOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « code grand régime » </t>
+    <t>Date de sortie du séjour PMSI</t>
   </si>
   <si>
     <t>CRCODEGR</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « code gestion » </t>
+    <t>Code retour contrôle « code grand régime »</t>
   </si>
   <si>
     <t>CRCDGESTION</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « code justification d’exonération du ticket modérateur »  </t>
+    <t>Code retour contrôle « code gestion »</t>
   </si>
   <si>
     <t>CREXTICM</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « code de prise en charge du forfait journalier » </t>
+    <t>Code retour contrôle « code justification d’exonération du ticket modérateur » </t>
   </si>
   <si>
     <t>CRPRFOJO</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « nature d’assurance » </t>
+    <t>Code retour contrôle « code de prise en charge du forfait journalier »</t>
   </si>
   <si>
     <t>CRNATASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
+    <t>Code retour contrôle « nature d’assurance »</t>
   </si>
   <si>
     <t>CRTYPECO</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « séjour facturable à l’assurance maladie » </t>
+    <t>Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire »</t>
   </si>
   <si>
     <t>CRFACTAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « motif de la non facturation à l'assurance maladie » </t>
+    <t>Code retour contrôle « séjour facturable à l’assurance maladie »</t>
   </si>
   <si>
     <t>CRMOTNOFACT</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « facturation du 18 euro » </t>
+    <t>Code retour contrôle « motif de la non facturation à l'assurance maladie »</t>
   </si>
   <si>
     <t>CRTOP18</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « nombre de venues de la facture » </t>
+    <t>Code retour contrôle « facturation du 18 euro »</t>
   </si>
   <si>
     <t>CRNBEVEN</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du ticket modérateur» </t>
+    <t>Code retour contrôle « nombre de venues de la facture »</t>
   </si>
   <si>
     <t>CRTICMOD</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du forfait journalier » </t>
+    <t>Code retour contrôle « montant à facturer au titre du ticket modérateur»</t>
   </si>
   <si>
     <t>CRFORJOU</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
+    <t>Code retour contrôle « montant à facturer au titre du forfait journalier »</t>
   </si>
   <si>
     <t>CRFACTOT</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « montant lié à la majoration au parcours de soin » </t>
+    <t>Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes »)</t>
   </si>
   <si>
     <t>CRMAJPAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « montant base remboursement » </t>
+    <t>Code retour contrôle « montant lié à la majoration au parcours de soin »</t>
   </si>
   <si>
     <t>CRMTBASE</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « taux de remboursement » </t>
+    <t>Code retour contrôle « montant base remboursement »</t>
   </si>
   <si>
     <t>CRTXRM</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Patient bénéficiaire de la CMU » </t>
+    <t>Code retour contrôle « taux de remboursement »</t>
   </si>
   <si>
     <t>CRPBCMU</t>
   </si>
   <si>
-    <t xml:space="preserve">Filler </t>
+    <t>Code retour contrôle « Patient bénéficiaire de la CMU »</t>
   </si>
   <si>
     <t>Filler1</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Identifiant anonyme d'hospitalisation » </t>
+    <t>Filler</t>
   </si>
   <si>
     <t>CRNOADM</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Montant total du séjour remboursable pour l'AMC » </t>
+    <t>Code retour contrôle « Identifiant anonyme d'hospitalisation »</t>
   </si>
   <si>
     <t>CRRMBAMC</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Code participation assuré » </t>
+    <t>Code retour contrôle « Montant total du séjour remboursable pour l'AMC »</t>
   </si>
   <si>
     <t>CRPARTASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « N° d’entrée » </t>
+    <t>Code retour contrôle « Code participation assuré »</t>
   </si>
   <si>
     <t>CRNUMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Rang de naissance » </t>
+    <t>Code retour contrôle « N° d’entrée »</t>
   </si>
   <si>
     <t>CRRGNAISS</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Rang du bénéficiaire » </t>
+    <t>Code retour contrôle « Rang de naissance »</t>
   </si>
   <si>
     <t>CRRGBEN</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « N° caisse gestionnaire » </t>
+    <t>Code retour contrôle « Rang du bénéficiaire »</t>
   </si>
   <si>
     <t>CRCAISSGEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « N° centre gestionnaire » </t>
+    <t>Code retour contrôle « N° caisse gestionnaire »</t>
   </si>
   <si>
     <t>CRCENTRGEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Confirmation de la prise en charge dans le cadre du dispositif des soins urgents » </t>
+    <t>Code retour contrôle « N° centre gestionnaire »</t>
   </si>
   <si>
     <t>CRPECSU</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Numéro accident du travail ou date d'accident de droit commun » </t>
+    <t>Code retour contrôle "Confirmation de la prise en charge dans le cadre du dispositif des soins urgents"</t>
   </si>
   <si>
     <t>CRAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « N° d'organisme complémentaire » </t>
+    <t>Code retour contrôle "Numéro accident du travail ou date d'accident de droit commun"</t>
   </si>
   <si>
     <t>CRCOMP</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « N° FINESS d’inscription e-PMSI » </t>
+    <t>Code retour contrôle "N° d'organisme complémentaire"</t>
   </si>
   <si>
     <t>CRCFINESSPMSI</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « N° immatriculation individuel » </t>
+    <t>Code retour contrôle "N° FINESS d’inscription e-PMSI"</t>
   </si>
   <si>
     <t>CRCIMMATIND</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Nature de la pièce justificative des droits » </t>
+    <t>Code retour contrôle "N° immatriculation individuel"</t>
   </si>
   <si>
     <t>CRCNATJUSTDROITS</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Prise en charge établie le » </t>
+    <t>Code retour contrôle "Nature de la pièce justificative des droits"</t>
   </si>
   <si>
     <t>CRCDATEPEC</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Attestation de droits, carte Vitale ou prise en charge valable à compter du. » </t>
+    <t>Code retour contrôle "Prise en charge établie le"</t>
   </si>
   <si>
     <t>CRCDATEATTEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Délivrée par » </t>
+    <t>Code retour contrôle "Attestation de droits, carte Vitale ou prise en charge valable à compter du."</t>
   </si>
   <si>
     <t>CRCDELIVR</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Régime de prestation de l’assuré » </t>
+    <t>Code retour contrôle "Délivrée par"</t>
   </si>
   <si>
     <t>CRCREGPRESTASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Top éclatement des flux par l’établissement » </t>
+    <t>Code retour contrôle "Régime de prestation de l’assuré"</t>
   </si>
   <si>
     <t>CRCECLATFLUX</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Date d’entrée » </t>
+    <t>Code retour contrôle "Top éclatement des flux par l’établissement"</t>
   </si>
   <si>
     <t>CRCDTENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « Date de sortie » </t>
+    <t>Code retour contrôle "Date d’entrée"</t>
   </si>
   <si>
     <t>CRCDTSORT</t>
   </si>
   <si>
-    <t xml:space="preserve">Code grand régime </t>
+    <t>Code retour contrôle "Date de sortie"</t>
+  </si>
+  <si>
+    <t>CRMTTFACPAT</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Montant total du séjour facturé au patient "</t>
+  </si>
+  <si>
+    <t>CRREJETAMO</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Rejet AMO "</t>
+  </si>
+  <si>
+    <t>CRDATFACTAMO</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Date de facturation AMO "</t>
+  </si>
+  <si>
+    <t>CRDATFACTAMC</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Date de facturation AMC "</t>
+  </si>
+  <si>
+    <t>CRDATFACTPAT</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Date de facturation patient "</t>
+  </si>
+  <si>
+    <t>CRDATPAIAMO</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Date de paiement AMO "</t>
+  </si>
+  <si>
+    <t>CRDATPAIAMC</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Date de paiement AMC "</t>
+  </si>
+  <si>
+    <t>CRDATPAIPAT</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Date de paiement patient "</t>
+  </si>
+  <si>
+    <t>CRSTATFTAMO</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Statut FT AMO "</t>
+  </si>
+  <si>
+    <t>CRSTATFTAMC</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Statut FT AMC "</t>
+  </si>
+  <si>
+    <t>CRSTATFTPAT</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Statut FT patient "</t>
+  </si>
+  <si>
+    <t>CRPAYSPAT</t>
+  </si>
+  <si>
+    <t>Code retour contrôle " Pays d’assurance social "</t>
   </si>
   <si>
     <t>CODEGR</t>
   </si>
   <si>
-    <t xml:space="preserve">Code gestion </t>
+    <t>Code grand régime</t>
   </si>
   <si>
     <t>CDGESTION</t>
   </si>
   <si>
-    <t xml:space="preserve">Code justification d’exonération du ticket modérateur </t>
+    <t>Code gestion</t>
   </si>
   <si>
     <t>CDEXTICM</t>
   </si>
   <si>
-    <t xml:space="preserve">Code de prise en charge du forfait journalier  </t>
+    <t>Code justification d’exonération du ticket modérateur</t>
   </si>
   <si>
     <t>CDPRFOJO</t>
   </si>
   <si>
-    <t xml:space="preserve">Nature d'assurance </t>
+    <t>Code de prise en charge du forfait journalier </t>
   </si>
   <si>
     <t>NATASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Type de contrat souscrit auprès d'un organisme complémentaire </t>
+    <t>Nature d'assurance</t>
   </si>
   <si>
     <t>TYPECONT</t>
   </si>
   <si>
-    <t xml:space="preserve">Séjour facturable à l’assurance maladie </t>
+    <t>Type de contrat souscrit auprès d'un organisme complémentaire</t>
   </si>
   <si>
     <t>FACTAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Motif de la non facturation à l'assurance maladie </t>
+    <t>Séjour facturable à l’assurance maladie</t>
   </si>
   <si>
     <t>MOTNOFACT</t>
   </si>
   <si>
-    <t xml:space="preserve">Facturation du 18 euro </t>
+    <t>Motif de la non facturation à l'assurance maladie</t>
   </si>
   <si>
     <t>FAC18</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de venues de la facture </t>
+    <t>Facturation du 18 euro</t>
   </si>
   <si>
     <t>NBEVEN</t>
   </si>
   <si>
-    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
+    <t>Nombre de venues de la facture</t>
   </si>
   <si>
     <t>MTFACTMO</t>
@@ -465,175 +534,256 @@
     <t>n</t>
   </si>
   <si>
-    <t xml:space="preserve">Montant à facturer au titre du forfait journalier  </t>
+    <t>Montant à facturer au titre du ticket modérateur</t>
   </si>
   <si>
     <t>MTFORJOU</t>
   </si>
   <si>
-    <t xml:space="preserve">Montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes) </t>
+    <t>Montant à facturer au titre du forfait journalier </t>
   </si>
   <si>
     <t>MTFACTOT</t>
   </si>
   <si>
-    <t xml:space="preserve">Montant lié à la majoration au parcours de soins </t>
+    <t>Montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes)</t>
   </si>
   <si>
     <t>MTMALPAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Montant base remboursement </t>
+    <t>Montant lié à la majoration au parcours de soins</t>
   </si>
   <si>
     <t>MTBASERM</t>
   </si>
   <si>
-    <t xml:space="preserve">Taux de remboursement </t>
+    <t>Montant base remboursement</t>
   </si>
   <si>
     <t>TAUXRM</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient bénéficiaire de la CMU </t>
+    <t>Taux de remboursement</t>
   </si>
   <si>
     <t>PBCMU</t>
   </si>
   <si>
+    <t>Patient bénéficiaire de la CMU</t>
+  </si>
+  <si>
     <t>FILLER2</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant anonyme d'hospitalisation </t>
-  </si>
-  <si>
     <t>DTHOSP</t>
   </si>
   <si>
-    <t xml:space="preserve">Montant total du séjour remboursable pour l'AMC </t>
+    <t>Identifiant anonyme d'hospitalisation</t>
   </si>
   <si>
     <t>MTRMBAMC</t>
   </si>
   <si>
-    <t xml:space="preserve">Code participation assuré  </t>
+    <t>Montant total du séjour remboursable pour l'AMC</t>
   </si>
   <si>
     <t>PARTASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant de première hospitalisation </t>
+    <t xml:space="preserve">Code participation assuré </t>
   </si>
   <si>
     <t>IDHOSPI1</t>
   </si>
   <si>
+    <t>Identifiant de première hospitalisation</t>
+  </si>
+  <si>
+    <t>CRIDHOSPI1</t>
+  </si>
+  <si>
+    <t>CR Identifiant de première hospitalisation</t>
+  </si>
+  <si>
     <t>Filler2</t>
   </si>
   <si>
-    <t xml:space="preserve">Rang de naissance  </t>
-  </si>
-  <si>
     <t>RGNAISS</t>
   </si>
   <si>
-    <t xml:space="preserve">Rang du bénéficiaire  </t>
+    <t xml:space="preserve">Rang de naissance </t>
   </si>
   <si>
     <t>RGBEN</t>
   </si>
   <si>
-    <t xml:space="preserve">N° caisse gestionnaire </t>
+    <t xml:space="preserve">Rang du bénéficiaire </t>
   </si>
   <si>
     <t>CAISSGEST</t>
   </si>
   <si>
-    <t xml:space="preserve">N° centre gestionnaire  </t>
+    <t>N° caisse gestionnaire</t>
   </si>
   <si>
     <t>CENTRGEST</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmation de la prise en charge dans le cadre du dispositif des soins urgents </t>
+    <t xml:space="preserve">N° centre gestionnaire </t>
   </si>
   <si>
     <t>PECSU</t>
   </si>
   <si>
-    <t xml:space="preserve">Numéro d'accident du travail ou date d'accident de droit commun </t>
+    <t>Confirmation de la prise en charge dans le cadre du dispositif des soins urgents</t>
   </si>
   <si>
     <t>NUMAT</t>
   </si>
   <si>
-    <t xml:space="preserve">N° d'organisme complémentaire </t>
+    <t>Numéro d'accident du travail ou date d'accident de droit commun</t>
   </si>
   <si>
     <t>NUMCOMP</t>
   </si>
   <si>
-    <t xml:space="preserve">Nature de la pièce justificative des droits </t>
+    <t>N° d'organisme complémentaire</t>
   </si>
   <si>
     <t>NATJUSTDROITS</t>
   </si>
   <si>
-    <t xml:space="preserve">Prise en charge établie le </t>
+    <t>Nature de la pièce justificative des droits</t>
   </si>
   <si>
     <t>DATETABLPEC</t>
   </si>
   <si>
-    <t xml:space="preserve">Attestation de droits, carte Vitale ou prise en charge valable à compter du. </t>
+    <t>Prise en charge établie le</t>
   </si>
   <si>
     <t>DATCARTVITALE</t>
   </si>
   <si>
-    <t xml:space="preserve">Délivrée par </t>
+    <t>Attestation de droits, carte Vitale ou prise en charge valable à compter du.</t>
   </si>
   <si>
     <t>DELIVR</t>
   </si>
   <si>
-    <t xml:space="preserve">Régime de prestation de l’assuré </t>
+    <t>Délivrée par</t>
   </si>
   <si>
     <t>REGPRESTASS</t>
   </si>
   <si>
-    <t xml:space="preserve">Top éclatement des flux par l’établissement </t>
+    <t>Régime de prestation de l’assuré</t>
   </si>
   <si>
     <t>ECLATFLUX</t>
   </si>
   <si>
-    <t xml:space="preserve">Date d’entrée </t>
+    <t>Top éclatement des flux par l’établissement</t>
   </si>
   <si>
     <t>DTENT2</t>
   </si>
   <si>
-    <t xml:space="preserve">Date de sortie </t>
+    <t>Date d’entrée</t>
   </si>
   <si>
     <t>DTSORT2</t>
   </si>
   <si>
+    <t>Date de sortie</t>
+  </si>
+  <si>
+    <t>MTTFACPAT</t>
+  </si>
+  <si>
+    <t>Montant total du séjour facturé au patient</t>
+  </si>
+  <si>
+    <t>REJETAMO</t>
+  </si>
+  <si>
+    <t>Rejet AMO</t>
+  </si>
+  <si>
+    <t>DATFACTAMO</t>
+  </si>
+  <si>
+    <t>Date de facturation AMO</t>
+  </si>
+  <si>
+    <t>DATFACTAMC</t>
+  </si>
+  <si>
+    <t>Date de facturation AMC</t>
+  </si>
+  <si>
+    <t>DATFACTPAT</t>
+  </si>
+  <si>
+    <t>Date de facturation patient</t>
+  </si>
+  <si>
+    <t>DATPAIAMO</t>
+  </si>
+  <si>
+    <t>Date de paiement AMO</t>
+  </si>
+  <si>
+    <t>DATPAIAMC</t>
+  </si>
+  <si>
+    <t>Date de paiement AMC</t>
+  </si>
+  <si>
+    <t>DATPAIPAT</t>
+  </si>
+  <si>
+    <t>Date de paiement patient</t>
+  </si>
+  <si>
+    <t>STATFTAMO</t>
+  </si>
+  <si>
+    <t>Statut FT AMO</t>
+  </si>
+  <si>
+    <t>STATFTAMC</t>
+  </si>
+  <si>
+    <t>Statut FT AMC</t>
+  </si>
+  <si>
+    <t>STATFTPAT</t>
+  </si>
+  <si>
+    <t>Statut FT patient</t>
+  </si>
+  <si>
+    <t>PAYSPAT</t>
+  </si>
+  <si>
+    <t>Pays d’assurance social</t>
+  </si>
+  <si>
     <t>Filler3</t>
   </si>
   <si>
-    <t xml:space="preserve">Empreinte numérique </t>
-  </si>
-  <si>
     <t>EMPNUM</t>
   </si>
   <si>
-    <t xml:space="preserve">Zone chiffrée </t>
+    <t>Empreinte numérique</t>
   </si>
   <si>
     <t>ZONECHIFFREE</t>
+  </si>
+  <si>
+    <t>Zone chiffrée</t>
   </si>
 </sst>
 </file>
@@ -641,29 +791,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,11 +812,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,16 +874,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,6 +898,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,7 +943,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,61 +971,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,43 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,79 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,13 +1018,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,30 +1162,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1014,74 +1194,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,157 +1234,285 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1606,18 +1857,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5733333333333" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="105.426666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.7133333333333" customWidth="1"/>
-    <col min="3" max="3" width="6.28666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.85333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.8" customWidth="1"/>
+    <col min="2" max="2" width="4.7" customWidth="1"/>
+    <col min="3" max="3" width="26.5866666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1627,16 +1881,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1647,17 +1901,18 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" ref="F2:F65" si="0">E2+D2-1</f>
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1665,19 +1920,21 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E66" si="1">F2+1</f>
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="7">
+        <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1685,19 +1942,21 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1705,19 +1964,21 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
         <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,39 +1986,43 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" ht="21" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1765,19 +2030,21 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
         <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1785,99 +2052,109 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" ht="21" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" ht="21" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" ht="21" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" ht="21" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
         <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1885,19 +2162,21 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
         <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1905,19 +2184,21 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
         <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1925,19 +2206,21 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="3">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
         <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1945,19 +2228,21 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="3">
         <v>17</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
         <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1967,17 +2252,19 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
         <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1985,19 +2272,21 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
         <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2005,19 +2294,21 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="3">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
         <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2025,19 +2316,21 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
         <v>92</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2045,19 +2338,21 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
         <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2065,59 +2360,65 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="E23">
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" ht="21" spans="1:6">
       <c r="A24" t="s">
         <v>52</v>
       </c>
       <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E24">
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" ht="21" spans="1:6">
       <c r="A25" t="s">
         <v>54</v>
       </c>
       <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="E25">
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
         <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2125,19 +2426,21 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="E26">
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
         <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:6">
@@ -2145,219 +2448,241 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="E27">
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" ht="21" spans="1:6">
       <c r="A28" t="s">
         <v>60</v>
       </c>
       <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="E28">
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" ht="21" spans="1:6">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E29">
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" ht="21" spans="1:6">
       <c r="A30" t="s">
         <v>64</v>
       </c>
       <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="E30">
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" ht="21" spans="1:6">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="E31">
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" ht="21" spans="1:6">
       <c r="A32" t="s">
         <v>68</v>
       </c>
       <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="E32">
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" ht="21" spans="1:6">
       <c r="A33" t="s">
         <v>70</v>
       </c>
       <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="E33">
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" ht="31.5" spans="1:6">
       <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="E34">
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" ht="21" spans="1:6">
       <c r="A35" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="E35">
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" ht="21" spans="1:6">
       <c r="A36" t="s">
         <v>76</v>
       </c>
       <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="E36">
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" ht="21" spans="1:6">
       <c r="A37" t="s">
         <v>78</v>
       </c>
       <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="E37">
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
         <v>108</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2365,19 +2690,21 @@
         <v>80</v>
       </c>
       <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="E38">
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
         <v>109</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2385,19 +2712,21 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C39">
+      <c r="D39" s="7">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="E39" s="3">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E39">
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
         <v>112</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2405,19 +2734,21 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="E40">
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
         <v>113</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2425,19 +2756,21 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="E41">
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
         <v>114</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2445,19 +2778,21 @@
         <v>88</v>
       </c>
       <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="E42">
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
         <v>115</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2465,19 +2800,21 @@
         <v>90</v>
       </c>
       <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="E43">
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
         <v>116</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2485,19 +2822,21 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="E44">
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
         <v>117</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2505,19 +2844,21 @@
         <v>94</v>
       </c>
       <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="E45">
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
         <v>118</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2525,19 +2866,21 @@
         <v>96</v>
       </c>
       <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="E46">
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
         <v>119</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2545,19 +2888,21 @@
         <v>98</v>
       </c>
       <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E47">
+      <c r="F47" s="7">
+        <f t="shared" si="0"/>
         <v>120</v>
-      </c>
-      <c r="F47" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2565,19 +2910,21 @@
         <v>100</v>
       </c>
       <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="E48">
+      <c r="F48" s="7">
+        <f t="shared" si="0"/>
         <v>121</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2585,19 +2932,21 @@
         <v>102</v>
       </c>
       <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="E49">
+      <c r="F49" s="7">
+        <f t="shared" si="0"/>
         <v>122</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2605,579 +2954,637 @@
         <v>104</v>
       </c>
       <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="E50">
+      <c r="F50" s="7">
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" t="s">
+      <c r="A51" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="E51">
+      <c r="F51" s="11">
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" t="s">
+      <c r="A52" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="E52">
+      <c r="F52" s="11">
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="A53" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="E53">
+      <c r="F53" s="11">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" t="s">
+      <c r="A54" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="E54">
+      <c r="F54" s="11">
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="A55" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="E55">
+      <c r="F55" s="11">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="A56" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="E56">
+      <c r="F56" s="11">
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="A57" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="E57">
+      <c r="F57" s="12">
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="A58" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12">
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="E58">
+      <c r="F58" s="12">
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" t="s">
+      <c r="A59" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
+      <c r="D59" s="12">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="E59">
+      <c r="F59" s="12">
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="F59" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" t="s">
+      <c r="A60" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12">
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="E60">
+      <c r="F60" s="12">
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="F60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
+    </row>
+    <row r="61" ht="15" spans="1:6">
+      <c r="A61" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
+      <c r="D61" s="16">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16">
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="E61">
+      <c r="F61" s="16">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:6">
+      <c r="A62" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="16">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16">
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="F61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
+      <c r="F62" s="16">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:6">
+      <c r="A63" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16">
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="E62">
+      <c r="F63" s="16">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:6">
+      <c r="A64" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="16">
+        <v>1</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="F62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
+      <c r="F64" s="16">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:6">
+      <c r="A65" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="16">
+        <v>1</v>
+      </c>
+      <c r="E65" s="16">
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="E63">
+      <c r="F65" s="16">
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
+    </row>
+    <row r="66" ht="15" spans="1:6">
+      <c r="A66" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="16">
+        <v>1</v>
+      </c>
+      <c r="E66" s="16">
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="E64">
+      <c r="F66" s="16">
+        <f t="shared" ref="F66:F126" si="2">E66+D66-1</f>
         <v>139</v>
       </c>
-      <c r="F64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
+    </row>
+    <row r="67" ht="15" spans="1:6">
+      <c r="A67" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="16">
+        <v>1</v>
+      </c>
+      <c r="E67" s="16">
+        <f t="shared" ref="E67:E126" si="3">F66+1</f>
         <v>140</v>
       </c>
-      <c r="E65">
+      <c r="F67" s="16">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:6">
+      <c r="A68" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
+      <c r="D68" s="16">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="F68" s="16">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:6">
+      <c r="A69" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E66">
+      <c r="B69" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
+      <c r="D69" s="16">
+        <v>1</v>
+      </c>
+      <c r="E69" s="16">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="F69" s="16">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" ht="15" spans="1:6">
+      <c r="A70" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E67">
+      <c r="B70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="16">
+        <v>1</v>
+      </c>
+      <c r="E70" s="16">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="F70" s="16">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:6">
+      <c r="A71" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="16">
+        <v>1</v>
+      </c>
+      <c r="E71" s="16">
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="F67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
+      <c r="F71" s="16">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:6">
+      <c r="A72" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="16">
+        <v>1</v>
+      </c>
+      <c r="E72" s="16">
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="E68">
+      <c r="F72" s="16">
+        <f t="shared" si="2"/>
         <v>145</v>
-      </c>
-      <c r="F68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>146</v>
-      </c>
-      <c r="E69">
-        <v>146</v>
-      </c>
-      <c r="F69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>147</v>
-      </c>
-      <c r="E70">
-        <v>150</v>
-      </c>
-      <c r="F70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>151</v>
-      </c>
-      <c r="E71">
-        <v>160</v>
-      </c>
-      <c r="F71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>161</v>
-      </c>
-      <c r="E72">
-        <v>170</v>
-      </c>
-      <c r="F72" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>171</v>
-      </c>
-      <c r="E73">
-        <v>180</v>
-      </c>
-      <c r="F73" t="s">
-        <v>148</v>
+      <c r="D73" s="7">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="2"/>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>181</v>
-      </c>
-      <c r="E74">
-        <v>184</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="D74" s="9">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="3"/>
         <v>148</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" si="2"/>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B75" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75">
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>185</v>
-      </c>
-      <c r="E75">
-        <v>194</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-      <c r="D76">
-        <v>195</v>
-      </c>
-      <c r="E76">
-        <v>199</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="2"/>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>200</v>
-      </c>
-      <c r="E77">
-        <v>200</v>
-      </c>
-      <c r="F77" t="s">
-        <v>8</v>
+      <c r="D77" s="7">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="2"/>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C78">
-        <v>66</v>
-      </c>
-      <c r="D78">
-        <v>201</v>
-      </c>
-      <c r="E78">
-        <v>266</v>
-      </c>
-      <c r="F78" t="s">
-        <v>8</v>
+      <c r="D78" s="7">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" si="2"/>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3185,39 +3592,43 @@
         <v>162</v>
       </c>
       <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>267</v>
-      </c>
-      <c r="E79">
-        <v>274</v>
-      </c>
-      <c r="F79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="F79" s="7">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" ht="21" spans="1:6">
       <c r="A80" t="s">
         <v>164</v>
       </c>
       <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C80">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>275</v>
-      </c>
-      <c r="E80">
-        <v>284</v>
-      </c>
-      <c r="F80" t="s">
-        <v>148</v>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="F80" s="7">
+        <f t="shared" si="2"/>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3225,19 +3636,21 @@
         <v>166</v>
       </c>
       <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>285</v>
-      </c>
-      <c r="E81">
-        <v>285</v>
-      </c>
-      <c r="F81" t="s">
-        <v>8</v>
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="F81" s="7">
+        <f t="shared" si="2"/>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3245,399 +3658,986 @@
         <v>168</v>
       </c>
       <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82">
-        <v>286</v>
-      </c>
-      <c r="E82">
-        <v>291</v>
-      </c>
-      <c r="F82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="D82" s="7">
+        <v>4</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="F82" s="7">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" ht="21" spans="1:6">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83">
-        <v>292</v>
-      </c>
-      <c r="E83">
-        <v>294</v>
-      </c>
-      <c r="F83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>171</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="7">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="F83" s="7">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" ht="21" spans="1:6">
       <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
         <v>171</v>
       </c>
-      <c r="B84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>295</v>
-      </c>
-      <c r="E84">
-        <v>295</v>
-      </c>
-      <c r="F84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="C84" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="7">
+        <v>10</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="F84" s="7">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" ht="31.5" spans="1:6">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>296</v>
-      </c>
-      <c r="E85">
-        <v>298</v>
-      </c>
-      <c r="F85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>171</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="7">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" ht="21" spans="1:6">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86">
-        <v>299</v>
-      </c>
-      <c r="E86">
-        <v>301</v>
-      </c>
-      <c r="F86" t="s">
-        <v>8</v>
+        <v>171</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="7">
+        <v>4</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="F86" s="7">
+        <f t="shared" si="2"/>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>302</v>
-      </c>
-      <c r="E87">
-        <v>305</v>
-      </c>
-      <c r="F87" t="s">
-        <v>8</v>
+        <v>171</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="7">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="F87" s="7">
+        <f t="shared" si="2"/>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>306</v>
-      </c>
-      <c r="E88">
-        <v>306</v>
-      </c>
-      <c r="F88" t="s">
-        <v>8</v>
+        <v>171</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="7">
+        <v>5</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="F88" s="7">
+        <f t="shared" si="2"/>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89">
-        <v>9</v>
-      </c>
-      <c r="D89">
-        <v>307</v>
-      </c>
-      <c r="E89">
-        <v>315</v>
-      </c>
-      <c r="F89" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="F89" s="7">
+        <f t="shared" si="2"/>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90">
-        <v>10</v>
-      </c>
-      <c r="D90">
-        <v>316</v>
-      </c>
-      <c r="E90">
-        <v>325</v>
-      </c>
-      <c r="F90" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="17">
+        <v>66</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="F90" s="7">
+        <f t="shared" si="2"/>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>185</v>
-      </c>
-      <c r="B91" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>326</v>
-      </c>
-      <c r="E91">
-        <v>326</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" s="7">
         <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="F91" s="7">
+        <f t="shared" si="2"/>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>187</v>
-      </c>
-      <c r="B92" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C92">
-        <v>8</v>
-      </c>
-      <c r="D92">
-        <v>327</v>
-      </c>
-      <c r="E92">
-        <v>334</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" s="7">
+        <v>10</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="F92" s="7">
+        <f t="shared" si="2"/>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>189</v>
-      </c>
-      <c r="B93" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C93">
-        <v>8</v>
-      </c>
-      <c r="D93">
-        <v>335</v>
-      </c>
-      <c r="E93">
-        <v>342</v>
-      </c>
-      <c r="F93" t="s">
-        <v>8</v>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" s="9">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="F93" s="7">
+        <f t="shared" si="2"/>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>343</v>
-      </c>
-      <c r="E94">
-        <v>345</v>
-      </c>
-      <c r="F94" t="s">
-        <v>8</v>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="19">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="F94" s="7">
+        <f t="shared" si="2"/>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>346</v>
-      </c>
-      <c r="E95">
-        <v>348</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
+      <c r="C95" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="19">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="2"/>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>195</v>
-      </c>
-      <c r="B96" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>349</v>
-      </c>
-      <c r="E96">
-        <v>349</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="20">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="2"/>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C97">
-        <v>8</v>
-      </c>
-      <c r="D97">
-        <v>350</v>
-      </c>
-      <c r="E97">
-        <v>357</v>
-      </c>
-      <c r="F97" t="s">
-        <v>8</v>
+      <c r="D97" s="9">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="F97" s="7">
+        <f t="shared" si="2"/>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>199</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>358</v>
-      </c>
-      <c r="E98">
-        <v>365</v>
-      </c>
-      <c r="F98" t="s">
-        <v>8</v>
+      <c r="D98" s="9">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="F98" s="7">
+        <f t="shared" si="2"/>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>82</v>
-      </c>
-      <c r="B99" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C99">
-        <v>50</v>
-      </c>
-      <c r="D99">
-        <v>366</v>
-      </c>
-      <c r="E99">
-        <v>415</v>
-      </c>
-      <c r="F99" t="s">
-        <v>8</v>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" s="9">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="3"/>
+        <v>311</v>
+      </c>
+      <c r="F99" s="7">
+        <f t="shared" si="2"/>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C100">
-        <v>32</v>
-      </c>
-      <c r="D100">
-        <v>416</v>
-      </c>
-      <c r="E100">
-        <v>447</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" s="9">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="3"/>
+        <v>314</v>
+      </c>
+      <c r="F100" s="7">
+        <f t="shared" si="2"/>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C101">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" s="9">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
+      <c r="F101" s="7">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="9">
+        <v>9</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="3"/>
+        <v>319</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="9">
+        <v>10</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="F103" s="7">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="9">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+      <c r="F104" s="6">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="9">
+        <v>8</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+      <c r="F105" s="6">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="9">
+        <v>8</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="3"/>
+        <v>347</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" s="9">
+        <v>3</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+      <c r="F107" s="6">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" s="9">
+        <v>3</v>
+      </c>
+      <c r="E108" s="3">
+        <f t="shared" si="3"/>
+        <v>358</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" s="9">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" si="3"/>
+        <v>361</v>
+      </c>
+      <c r="F109" s="6">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" s="9">
+        <v>8</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="3"/>
+        <v>362</v>
+      </c>
+      <c r="F110" s="6">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" s="9">
+        <v>8</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="F111" s="6">
+        <f t="shared" si="2"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="112" ht="15" spans="1:6">
+      <c r="A112" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" s="22">
+        <v>8</v>
+      </c>
+      <c r="E112" s="23">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="F112" s="23">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="113" ht="15" spans="1:6">
+      <c r="A113" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" s="22">
+        <v>1</v>
+      </c>
+      <c r="E113" s="23">
+        <f t="shared" si="3"/>
+        <v>386</v>
+      </c>
+      <c r="F113" s="23">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" ht="15" spans="1:6">
+      <c r="A114" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" s="22">
+        <v>8</v>
+      </c>
+      <c r="E114" s="23">
+        <f t="shared" si="3"/>
+        <v>387</v>
+      </c>
+      <c r="F114" s="23">
+        <f t="shared" si="2"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="115" ht="15" spans="1:6">
+      <c r="A115" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="22">
+        <v>8</v>
+      </c>
+      <c r="E115" s="23">
+        <f t="shared" si="3"/>
+        <v>395</v>
+      </c>
+      <c r="F115" s="23">
+        <f t="shared" si="2"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="116" ht="15" spans="1:6">
+      <c r="A116" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" s="22">
+        <v>8</v>
+      </c>
+      <c r="E116" s="23">
+        <f t="shared" si="3"/>
+        <v>403</v>
+      </c>
+      <c r="F116" s="23">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" ht="15" spans="1:6">
+      <c r="A117" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" s="22">
+        <v>8</v>
+      </c>
+      <c r="E117" s="23">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="F117" s="23">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" ht="15" spans="1:6">
+      <c r="A118" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D118" s="22">
+        <v>8</v>
+      </c>
+      <c r="E118" s="23">
+        <f t="shared" si="3"/>
+        <v>419</v>
+      </c>
+      <c r="F118" s="23">
+        <f t="shared" si="2"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="1:6">
+      <c r="A119" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="22">
+        <v>8</v>
+      </c>
+      <c r="E119" s="23">
+        <f t="shared" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="F119" s="23">
+        <f t="shared" si="2"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" ht="15" spans="1:6">
+      <c r="A120" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D120" s="22">
+        <v>1</v>
+      </c>
+      <c r="E120" s="23">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="F120" s="23">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" ht="15" spans="1:6">
+      <c r="A121" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" s="22">
+        <v>1</v>
+      </c>
+      <c r="E121" s="23">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="F121" s="23">
+        <f t="shared" si="2"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="122" ht="15" spans="1:6">
+      <c r="A122" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D122" s="22">
+        <v>1</v>
+      </c>
+      <c r="E122" s="23">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="F122" s="23">
+        <f t="shared" si="2"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="123" ht="15" spans="1:6">
+      <c r="A123" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" s="22">
+        <v>3</v>
+      </c>
+      <c r="E123" s="23">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="F123" s="23">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D124" s="9">
+        <v>50</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D125" s="9">
+        <v>32</v>
+      </c>
+      <c r="E125" s="3">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="2"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D126" s="9">
         <v>344</v>
       </c>
-      <c r="D101">
-        <v>448</v>
-      </c>
-      <c r="E101">
-        <v>791</v>
-      </c>
-      <c r="F101" t="s">
-        <v>8</v>
+      <c r="E126" s="3">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="2"/>
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/formats/excel/Formats RHA ANO 18.xlsx
+++ b/formats/excel/Formats RHA ANO 18.xlsx
@@ -791,19 +791,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,9 +836,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,91 +904,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,14 +921,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,6 +932,43 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1012,19 +1005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,19 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,19 +1053,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,25 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,7 +1137,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,31 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,11 +1219,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,21 +1275,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1300,217 +1291,218 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1860,11 +1852,11 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5733333333333" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1881,16 +1873,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1901,16 +1893,16 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <f t="shared" ref="F2:F65" si="0">E2+D2-1</f>
         <v>9</v>
       </c>
@@ -1922,17 +1914,17 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E66" si="1">F2+1</f>
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1944,17 +1936,17 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1966,17 +1958,17 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1988,17 +1980,17 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2010,17 +2002,17 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2032,17 +2024,17 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2054,17 +2046,17 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2076,17 +2068,17 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2098,17 +2090,17 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -2120,17 +2112,17 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2142,17 +2134,17 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2164,17 +2156,17 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -2186,17 +2178,17 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2208,17 +2200,17 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>17</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -2230,17 +2222,17 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>17</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -2252,17 +2244,17 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -2274,17 +2266,17 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="3">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="2">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -2296,17 +2288,17 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -2318,17 +2310,17 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
@@ -2340,17 +2332,17 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
@@ -2362,17 +2354,17 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
@@ -2384,17 +2376,17 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -2406,17 +2398,17 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -2428,17 +2420,17 @@
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
@@ -2450,17 +2442,17 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
@@ -2472,17 +2464,17 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
@@ -2494,17 +2486,17 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2516,17 +2508,17 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
@@ -2538,17 +2530,17 @@
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -2560,17 +2552,17 @@
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
@@ -2582,17 +2574,17 @@
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
@@ -2604,17 +2596,17 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -2626,17 +2618,17 @@
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -2648,17 +2640,17 @@
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -2670,17 +2662,17 @@
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -2692,17 +2684,17 @@
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
@@ -2714,17 +2706,17 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>3</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
@@ -2736,17 +2728,17 @@
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="9">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
@@ -2758,17 +2750,17 @@
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -2780,17 +2772,17 @@
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -2802,17 +2794,17 @@
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="9">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
@@ -2824,17 +2816,17 @@
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="9">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
@@ -2846,17 +2838,17 @@
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -2868,17 +2860,17 @@
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -2890,17 +2882,17 @@
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="9">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -2912,17 +2904,17 @@
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="9">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
@@ -2934,17 +2926,17 @@
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
@@ -2956,501 +2948,501 @@
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="9">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="12">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51" s="11">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="12">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="12">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="12">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="12">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="D55" s="11">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="12">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="D56" s="11">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="12">
-        <v>1</v>
-      </c>
-      <c r="E57" s="12">
+      <c r="D57" s="11">
+        <v>1</v>
+      </c>
+      <c r="E57" s="11">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="12">
-        <v>1</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="D58" s="11">
+        <v>1</v>
+      </c>
+      <c r="E58" s="11">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="12">
-        <v>1</v>
-      </c>
-      <c r="E59" s="12">
+      <c r="D59" s="11">
+        <v>1</v>
+      </c>
+      <c r="E59" s="11">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="12">
-        <v>1</v>
-      </c>
-      <c r="E60" s="12">
+      <c r="D60" s="11">
+        <v>1</v>
+      </c>
+      <c r="E60" s="11">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:6">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="15" t="s">
+      <c r="B61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="16">
-        <v>1</v>
-      </c>
-      <c r="E61" s="16">
+      <c r="D61" s="15">
+        <v>1</v>
+      </c>
+      <c r="E61" s="15">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="15">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:6">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="15" t="s">
+      <c r="B62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="16">
-        <v>1</v>
-      </c>
-      <c r="E62" s="16">
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="15">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:6">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="15" t="s">
+      <c r="B63" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="16">
-        <v>1</v>
-      </c>
-      <c r="E63" s="16">
+      <c r="D63" s="15">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="15">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:6">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="15" t="s">
+      <c r="B64" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="16">
-        <v>1</v>
-      </c>
-      <c r="E64" s="16">
+      <c r="D64" s="15">
+        <v>1</v>
+      </c>
+      <c r="E64" s="15">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="15">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:6">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="15" t="s">
+      <c r="B65" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="16">
-        <v>1</v>
-      </c>
-      <c r="E65" s="16">
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="15">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:6">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="15" t="s">
+      <c r="B66" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="16">
-        <v>1</v>
-      </c>
-      <c r="E66" s="16">
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="15">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="15">
         <f t="shared" ref="F66:F126" si="2">E66+D66-1</f>
         <v>139</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:6">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="15" t="s">
+      <c r="B67" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="16">
-        <v>1</v>
-      </c>
-      <c r="E67" s="16">
+      <c r="D67" s="15">
+        <v>1</v>
+      </c>
+      <c r="E67" s="15">
         <f t="shared" ref="E67:E126" si="3">F66+1</f>
         <v>140</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="15">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:6">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="15" t="s">
+      <c r="B68" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="16">
-        <v>1</v>
-      </c>
-      <c r="E68" s="16">
+      <c r="D68" s="15">
+        <v>1</v>
+      </c>
+      <c r="E68" s="15">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="15">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:6">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="15" t="s">
+      <c r="B69" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="16">
-        <v>1</v>
-      </c>
-      <c r="E69" s="16">
+      <c r="D69" s="15">
+        <v>1</v>
+      </c>
+      <c r="E69" s="15">
         <f t="shared" si="3"/>
         <v>142</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="15">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:6">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="15" t="s">
+      <c r="B70" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="16">
-        <v>1</v>
-      </c>
-      <c r="E70" s="16">
+      <c r="D70" s="15">
+        <v>1</v>
+      </c>
+      <c r="E70" s="15">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="15">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:6">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="15" t="s">
+      <c r="B71" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="16">
-        <v>1</v>
-      </c>
-      <c r="E71" s="16">
+      <c r="D71" s="15">
+        <v>1</v>
+      </c>
+      <c r="E71" s="15">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="15">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:6">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="15" t="s">
+      <c r="B72" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="16">
-        <v>1</v>
-      </c>
-      <c r="E72" s="16">
+      <c r="D72" s="15">
+        <v>1</v>
+      </c>
+      <c r="E72" s="15">
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="15">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
@@ -3459,20 +3451,20 @@
       <c r="A73" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>2</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
@@ -3484,17 +3476,17 @@
       <c r="B74" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>2</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
@@ -3506,17 +3498,17 @@
       <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D75" s="7">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
@@ -3528,17 +3520,17 @@
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="7">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
         <f t="shared" si="3"/>
         <v>151</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
@@ -3550,17 +3542,17 @@
       <c r="B77" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>2</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
@@ -3572,17 +3564,17 @@
       <c r="B78" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>2</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
@@ -3594,17 +3586,17 @@
       <c r="B79" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="7">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3">
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
@@ -3616,17 +3608,17 @@
       <c r="B80" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D80" s="3">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
@@ -3638,17 +3630,17 @@
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D81" s="7">
-        <v>1</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
@@ -3660,17 +3652,17 @@
       <c r="B82" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>4</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
@@ -3682,17 +3674,17 @@
       <c r="B83" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <v>10</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
@@ -3704,17 +3696,17 @@
       <c r="B84" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <v>10</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
@@ -3726,17 +3718,17 @@
       <c r="B85" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <v>10</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
@@ -3748,17 +3740,17 @@
       <c r="B86" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>4</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <f t="shared" si="2"/>
         <v>196</v>
       </c>
@@ -3770,17 +3762,17 @@
       <c r="B87" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <v>10</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
@@ -3792,17 +3784,17 @@
       <c r="B88" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <v>5</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="6">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
@@ -3814,17 +3806,17 @@
       <c r="B89" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D89" s="7">
-        <v>1</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
@@ -3836,17 +3828,17 @@
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="16">
         <v>66</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <f t="shared" si="2"/>
         <v>278</v>
       </c>
@@ -3858,17 +3850,17 @@
       <c r="B91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <f t="shared" si="3"/>
         <v>279</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <f t="shared" si="2"/>
         <v>286</v>
       </c>
@@ -3880,17 +3872,17 @@
       <c r="B92" t="s">
         <v>171</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>10</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <f t="shared" si="3"/>
         <v>287</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <f t="shared" si="2"/>
         <v>296</v>
       </c>
@@ -3902,17 +3894,17 @@
       <c r="B93" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D93" s="9">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="D93" s="8">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2">
         <f t="shared" si="3"/>
         <v>297</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <f t="shared" si="2"/>
         <v>297</v>
       </c>
@@ -3924,36 +3916,39 @@
       <c r="B94" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="18">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <f t="shared" si="3"/>
         <v>298</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <f t="shared" si="2"/>
         <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D95" s="19">
-        <v>1</v>
-      </c>
-      <c r="E95" s="3">
+      <c r="D95" s="18">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <f t="shared" si="2"/>
         <v>303</v>
       </c>
@@ -3965,17 +3960,17 @@
       <c r="B96" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="19">
         <v>3</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <f t="shared" si="2"/>
         <v>306</v>
       </c>
@@ -3987,17 +3982,17 @@
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="9">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3">
+      <c r="D97" s="8">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <f t="shared" si="2"/>
         <v>307</v>
       </c>
@@ -4009,17 +4004,17 @@
       <c r="B98" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="8">
         <v>3</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
@@ -4031,17 +4026,17 @@
       <c r="B99" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="8">
         <v>3</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="6">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
@@ -4053,17 +4048,17 @@
       <c r="B100" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="8">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="2">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="6">
         <f t="shared" si="2"/>
         <v>317</v>
       </c>
@@ -4075,17 +4070,17 @@
       <c r="B101" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D101" s="9">
-        <v>1</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="8">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="6">
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
@@ -4097,17 +4092,17 @@
       <c r="B102" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="8">
         <v>9</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="2">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <f t="shared" si="2"/>
         <v>327</v>
       </c>
@@ -4119,523 +4114,523 @@
       <c r="B103" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="8">
         <v>10</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="2">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6">
         <f t="shared" si="2"/>
         <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D104" s="9">
-        <v>1</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="D104" s="8">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <f t="shared" si="2"/>
         <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>213</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="8">
         <v>8</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="2">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="5">
         <f t="shared" si="2"/>
         <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>215</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="8">
         <v>8</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="2">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="5">
         <f t="shared" si="2"/>
         <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="8">
         <v>3</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="2">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="5">
         <f t="shared" si="2"/>
         <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="8">
         <v>3</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="2">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="5">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>221</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D109" s="9">
-        <v>1</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="D109" s="8">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="5">
         <f t="shared" si="2"/>
         <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>223</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="8">
         <v>8</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="2">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="5">
         <f t="shared" si="2"/>
         <v>369</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="9" t="s">
         <v>225</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="8">
         <v>8</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="2">
         <f t="shared" si="3"/>
         <v>370</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <f t="shared" si="2"/>
         <v>377</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:6">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D112" s="22">
+      <c r="D112" s="21">
         <v>8</v>
       </c>
-      <c r="E112" s="23">
+      <c r="E112" s="22">
         <f t="shared" si="3"/>
         <v>378</v>
       </c>
-      <c r="F112" s="23">
+      <c r="F112" s="22">
         <f t="shared" si="2"/>
         <v>385</v>
       </c>
     </row>
     <row r="113" ht="15" spans="1:6">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D113" s="22">
-        <v>1</v>
-      </c>
-      <c r="E113" s="23">
+      <c r="D113" s="21">
+        <v>1</v>
+      </c>
+      <c r="E113" s="22">
         <f t="shared" si="3"/>
         <v>386</v>
       </c>
-      <c r="F113" s="23">
+      <c r="F113" s="22">
         <f t="shared" si="2"/>
         <v>386</v>
       </c>
     </row>
     <row r="114" ht="15" spans="1:6">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="22">
+      <c r="D114" s="21">
         <v>8</v>
       </c>
-      <c r="E114" s="23">
+      <c r="E114" s="22">
         <f t="shared" si="3"/>
         <v>387</v>
       </c>
-      <c r="F114" s="23">
+      <c r="F114" s="22">
         <f t="shared" si="2"/>
         <v>394</v>
       </c>
     </row>
     <row r="115" ht="15" spans="1:6">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="13" t="s">
         <v>233</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="21">
         <v>8</v>
       </c>
-      <c r="E115" s="23">
+      <c r="E115" s="22">
         <f t="shared" si="3"/>
         <v>395</v>
       </c>
-      <c r="F115" s="23">
+      <c r="F115" s="22">
         <f t="shared" si="2"/>
         <v>402</v>
       </c>
     </row>
     <row r="116" ht="15" spans="1:6">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="21">
         <v>8</v>
       </c>
-      <c r="E116" s="23">
+      <c r="E116" s="22">
         <f t="shared" si="3"/>
         <v>403</v>
       </c>
-      <c r="F116" s="23">
+      <c r="F116" s="22">
         <f t="shared" si="2"/>
         <v>410</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:6">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="13" t="s">
         <v>237</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D117" s="22">
+      <c r="D117" s="21">
         <v>8</v>
       </c>
-      <c r="E117" s="23">
+      <c r="E117" s="22">
         <f t="shared" si="3"/>
         <v>411</v>
       </c>
-      <c r="F117" s="23">
+      <c r="F117" s="22">
         <f t="shared" si="2"/>
         <v>418</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:6">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="21">
         <v>8</v>
       </c>
-      <c r="E118" s="23">
+      <c r="E118" s="22">
         <f t="shared" si="3"/>
         <v>419</v>
       </c>
-      <c r="F118" s="23">
+      <c r="F118" s="22">
         <f t="shared" si="2"/>
         <v>426</v>
       </c>
     </row>
     <row r="119" ht="15" spans="1:6">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="13" t="s">
         <v>241</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="21">
         <v>8</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="22">
         <f t="shared" si="3"/>
         <v>427</v>
       </c>
-      <c r="F119" s="23">
+      <c r="F119" s="22">
         <f t="shared" si="2"/>
         <v>434</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:6">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D120" s="22">
-        <v>1</v>
-      </c>
-      <c r="E120" s="23">
+      <c r="D120" s="21">
+        <v>1</v>
+      </c>
+      <c r="E120" s="22">
         <f t="shared" si="3"/>
         <v>435</v>
       </c>
-      <c r="F120" s="23">
+      <c r="F120" s="22">
         <f t="shared" si="2"/>
         <v>435</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:6">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D121" s="22">
-        <v>1</v>
-      </c>
-      <c r="E121" s="23">
+      <c r="D121" s="21">
+        <v>1</v>
+      </c>
+      <c r="E121" s="22">
         <f t="shared" si="3"/>
         <v>436</v>
       </c>
-      <c r="F121" s="23">
+      <c r="F121" s="22">
         <f t="shared" si="2"/>
         <v>436</v>
       </c>
     </row>
     <row r="122" ht="15" spans="1:6">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D122" s="22">
-        <v>1</v>
-      </c>
-      <c r="E122" s="23">
+      <c r="D122" s="21">
+        <v>1</v>
+      </c>
+      <c r="E122" s="22">
         <f t="shared" si="3"/>
         <v>437</v>
       </c>
-      <c r="F122" s="23">
+      <c r="F122" s="22">
         <f t="shared" si="2"/>
         <v>437</v>
       </c>
     </row>
     <row r="123" ht="15" spans="1:6">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="13" t="s">
         <v>249</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D123" s="22">
+      <c r="D123" s="21">
         <v>3</v>
       </c>
-      <c r="E123" s="23">
+      <c r="E123" s="22">
         <f t="shared" si="3"/>
         <v>438</v>
       </c>
-      <c r="F123" s="23">
+      <c r="F123" s="22">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="8">
         <v>50</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="2">
         <f t="shared" si="3"/>
         <v>441</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="5">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="9" t="s">
         <v>252</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="8">
         <v>32</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="2">
         <f t="shared" si="3"/>
         <v>491</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125" s="5">
         <f t="shared" si="2"/>
         <v>522</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
         <v>254</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="8">
         <v>344</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="2">
         <f t="shared" si="3"/>
         <v>523</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="5">
         <f t="shared" si="2"/>
         <v>866</v>
       </c>

--- a/formats/excel/Formats RHA ANO 18.xlsx
+++ b/formats/excel/Formats RHA ANO 18.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$126</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -573,7 +576,7 @@
     <t>Patient bénéficiaire de la CMU</t>
   </si>
   <si>
-    <t>FILLER2</t>
+    <t>Filler2</t>
   </si>
   <si>
     <t>DTHOSP</t>
@@ -606,7 +609,7 @@
     <t>CR Identifiant de première hospitalisation</t>
   </si>
   <si>
-    <t>Filler2</t>
+    <t>Filler3</t>
   </si>
   <si>
     <t>RGNAISS</t>
@@ -771,7 +774,7 @@
     <t>Pays d’assurance social</t>
   </si>
   <si>
-    <t>Filler3</t>
+    <t>Filler4</t>
   </si>
   <si>
     <t>EMPNUM</t>
@@ -791,10 +794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -836,14 +839,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -851,8 +846,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +879,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,9 +928,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,60 +969,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,7 +1008,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,25 +1146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,133 +1170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,15 +1220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1245,7 +1239,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,8 +1262,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,142 +1293,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1848,15 +1851,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5733333333333" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1886,7 +1889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" hidden="1" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" hidden="1" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" hidden="1" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" hidden="1" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" hidden="1" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="1:6">
+    <row r="7" ht="21" hidden="1" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" hidden="1" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" hidden="1" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="21" spans="1:6">
+    <row r="10" ht="21" hidden="1" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="21" spans="1:6">
+    <row r="11" ht="21" hidden="1" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="1:6">
+    <row r="12" ht="21" hidden="1" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="21" spans="1:6">
+    <row r="13" ht="21" hidden="1" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" hidden="1" spans="1:6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" hidden="1" spans="1:6">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" hidden="1" spans="1:6">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" hidden="1" spans="1:6">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" hidden="1" spans="1:6">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" hidden="1" spans="1:6">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" hidden="1" spans="1:6">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" hidden="1" spans="1:6">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" hidden="1" spans="1:6">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" hidden="1" spans="1:6">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" ht="21" spans="1:6">
+    <row r="24" ht="21" hidden="1" spans="1:6">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" ht="21" spans="1:6">
+    <row r="25" ht="21" hidden="1" spans="1:6">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" hidden="1" spans="1:6">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:6">
+    <row r="27" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" ht="21" spans="1:6">
+    <row r="28" ht="21" hidden="1" spans="1:6">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" ht="21" spans="1:6">
+    <row r="29" ht="21" hidden="1" spans="1:6">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="21" spans="1:6">
+    <row r="30" ht="21" hidden="1" spans="1:6">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" ht="21" spans="1:6">
+    <row r="31" ht="21" hidden="1" spans="1:6">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" ht="21" spans="1:6">
+    <row r="32" ht="21" hidden="1" spans="1:6">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" ht="21" spans="1:6">
+    <row r="33" ht="21" hidden="1" spans="1:6">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" ht="31.5" spans="1:6">
+    <row r="34" ht="31.5" hidden="1" spans="1:6">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" ht="21" spans="1:6">
+    <row r="35" ht="21" hidden="1" spans="1:6">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" ht="21" spans="1:6">
+    <row r="36" ht="21" hidden="1" spans="1:6">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" ht="21" spans="1:6">
+    <row r="37" ht="21" hidden="1" spans="1:6">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" hidden="1" spans="1:6">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" hidden="1" spans="1:6">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" hidden="1" spans="1:6">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" hidden="1" spans="1:6">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" hidden="1" spans="1:6">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" hidden="1" spans="1:6">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" hidden="1" spans="1:6">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" hidden="1" spans="1:6">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" hidden="1" spans="1:6">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" hidden="1" spans="1:6">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2919,7 +2922,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" hidden="1" spans="1:6">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" hidden="1" spans="1:6">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" hidden="1" spans="1:6">
       <c r="A51" s="9" t="s">
         <v>106</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" hidden="1" spans="1:6">
       <c r="A52" s="9" t="s">
         <v>108</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" hidden="1" spans="1:6">
       <c r="A53" s="9" t="s">
         <v>110</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" hidden="1" spans="1:6">
       <c r="A54" s="9" t="s">
         <v>112</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" hidden="1" spans="1:6">
       <c r="A55" s="9" t="s">
         <v>114</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" hidden="1" spans="1:6">
       <c r="A56" s="9" t="s">
         <v>116</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" hidden="1" spans="1:6">
       <c r="A57" s="9" t="s">
         <v>118</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" hidden="1" spans="1:6">
       <c r="A58" s="9" t="s">
         <v>120</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" hidden="1" spans="1:6">
       <c r="A59" s="9" t="s">
         <v>122</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" hidden="1" spans="1:6">
       <c r="A60" s="9" t="s">
         <v>124</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="1:6">
+    <row r="61" ht="15" hidden="1" spans="1:6">
       <c r="A61" s="13" t="s">
         <v>126</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="1:6">
+    <row r="62" ht="15" hidden="1" spans="1:6">
       <c r="A62" s="13" t="s">
         <v>128</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:6">
+    <row r="63" ht="15" hidden="1" spans="1:6">
       <c r="A63" s="13" t="s">
         <v>130</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:6">
+    <row r="64" ht="15" hidden="1" spans="1:6">
       <c r="A64" s="13" t="s">
         <v>132</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:6">
+    <row r="65" ht="15" hidden="1" spans="1:6">
       <c r="A65" s="13" t="s">
         <v>134</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="1:6">
+    <row r="66" ht="15" hidden="1" spans="1:6">
       <c r="A66" s="13" t="s">
         <v>136</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:6">
+    <row r="67" ht="15" hidden="1" spans="1:6">
       <c r="A67" s="13" t="s">
         <v>138</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:6">
+    <row r="68" ht="15" hidden="1" spans="1:6">
       <c r="A68" s="13" t="s">
         <v>140</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:6">
+    <row r="69" ht="15" hidden="1" spans="1:6">
       <c r="A69" s="13" t="s">
         <v>142</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:6">
+    <row r="70" ht="15" hidden="1" spans="1:6">
       <c r="A70" s="13" t="s">
         <v>144</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="1:6">
+    <row r="71" ht="15" hidden="1" spans="1:6">
       <c r="A71" s="13" t="s">
         <v>146</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="1:6">
+    <row r="72" ht="15" hidden="1" spans="1:6">
       <c r="A72" s="13" t="s">
         <v>148</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" hidden="1" spans="1:6">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" hidden="1" spans="1:6">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" hidden="1" spans="1:6">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" hidden="1" spans="1:6">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" hidden="1" spans="1:6">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" hidden="1" spans="1:6">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" hidden="1" spans="1:6">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" ht="21" spans="1:6">
+    <row r="80" ht="21" hidden="1" spans="1:6">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" hidden="1" spans="1:6">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" hidden="1" spans="1:6">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -3667,7 +3670,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" ht="21" spans="1:6">
+    <row r="83" ht="21" hidden="1" spans="1:6">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" ht="21" spans="1:6">
+    <row r="84" ht="21" hidden="1" spans="1:6">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" ht="31.5" spans="1:6">
+    <row r="85" ht="31.5" hidden="1" spans="1:6">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" ht="21" spans="1:6">
+    <row r="86" ht="21" hidden="1" spans="1:6">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" hidden="1" spans="1:6">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" hidden="1" spans="1:6">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" hidden="1" spans="1:6">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" hidden="1" spans="1:6">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" hidden="1" spans="1:6">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" hidden="1" spans="1:6">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" hidden="1" spans="1:6">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" hidden="1" spans="1:6">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" hidden="1" spans="1:6">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" hidden="1" spans="1:6">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" hidden="1" spans="1:6">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" hidden="1" spans="1:6">
       <c r="A100" t="s">
         <v>203</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" hidden="1" spans="1:6">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" hidden="1" spans="1:6">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" hidden="1" spans="1:6">
       <c r="A103" t="s">
         <v>209</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" hidden="1" spans="1:6">
       <c r="A104" s="9" t="s">
         <v>211</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" hidden="1" spans="1:6">
       <c r="A105" s="9" t="s">
         <v>213</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" hidden="1" spans="1:6">
       <c r="A106" s="9" t="s">
         <v>215</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" hidden="1" spans="1:6">
       <c r="A107" s="9" t="s">
         <v>217</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" hidden="1" spans="1:6">
       <c r="A108" s="9" t="s">
         <v>219</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" hidden="1" spans="1:6">
       <c r="A109" s="9" t="s">
         <v>221</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" hidden="1" spans="1:6">
       <c r="A110" s="9" t="s">
         <v>223</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" hidden="1" spans="1:6">
       <c r="A111" s="9" t="s">
         <v>225</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="1:6">
+    <row r="112" ht="15" hidden="1" spans="1:6">
       <c r="A112" s="13" t="s">
         <v>227</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="1:6">
+    <row r="113" ht="15" hidden="1" spans="1:6">
       <c r="A113" s="13" t="s">
         <v>229</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="1:6">
+    <row r="114" ht="15" hidden="1" spans="1:6">
       <c r="A114" s="13" t="s">
         <v>231</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="1:6">
+    <row r="115" ht="15" hidden="1" spans="1:6">
       <c r="A115" s="13" t="s">
         <v>233</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="1:6">
+    <row r="116" ht="15" hidden="1" spans="1:6">
       <c r="A116" s="13" t="s">
         <v>235</v>
       </c>
@@ -4415,7 +4418,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="1:6">
+    <row r="117" ht="15" hidden="1" spans="1:6">
       <c r="A117" s="13" t="s">
         <v>237</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="1:6">
+    <row r="118" ht="15" hidden="1" spans="1:6">
       <c r="A118" s="13" t="s">
         <v>239</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="1:6">
+    <row r="119" ht="15" hidden="1" spans="1:6">
       <c r="A119" s="13" t="s">
         <v>241</v>
       </c>
@@ -4481,7 +4484,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="1:6">
+    <row r="120" ht="15" hidden="1" spans="1:6">
       <c r="A120" s="13" t="s">
         <v>243</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="1:6">
+    <row r="121" ht="15" hidden="1" spans="1:6">
       <c r="A121" s="13" t="s">
         <v>245</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="1:6">
+    <row r="122" ht="15" hidden="1" spans="1:6">
       <c r="A122" s="13" t="s">
         <v>247</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="1:6">
+    <row r="123" ht="15" hidden="1" spans="1:6">
       <c r="A123" s="13" t="s">
         <v>249</v>
       </c>
@@ -4591,7 +4594,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" hidden="1" spans="1:6">
       <c r="A125" s="9" t="s">
         <v>252</v>
       </c>
@@ -4613,7 +4616,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" hidden="1" spans="1:6">
       <c r="A126" s="9" t="s">
         <v>254</v>
       </c>
@@ -4636,6 +4639,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F126">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Filler1"/>
+        <filter val="FILLER2"/>
+        <filter val="Filler3"/>
+        <filter val="Filler4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
